--- a/ACSM.xlsx
+++ b/ACSM.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1e5a72b3be143b9d/Documents/R/manny_thesis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="115" documentId="8_{FB6942EF-E9AD-4BBB-A416-8B4968584824}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8B1CCBAE-1C99-41C1-81D7-8401C98CA700}"/>
+  <xr:revisionPtr revIDLastSave="116" documentId="8_{FB6942EF-E9AD-4BBB-A416-8B4968584824}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{52ECD302-516B-4F67-863E-5D1F433701A4}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1E56B808-4219-42AE-BF56-8F8A3A2807EB}"/>
   </bookViews>
@@ -466,8 +466,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D6E03E4-5D97-49E9-9A08-8DF84FE019A8}">
   <dimension ref="A1:K57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="A58" sqref="A58:A64"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -545,7 +545,7 @@
         <v>84.1</v>
       </c>
       <c r="J2" s="1">
-        <v>29.142183307842274</v>
+        <v>29.142183307842298</v>
       </c>
       <c r="K2" s="1">
         <v>1044.1355918839358</v>
